--- a/paper/Tables/formatted/Hotspot_eQTL_BcAt.xlsx
+++ b/paper/Tables/formatted/Hotspot_eQTL_BcAt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nesol\Documents\Projects\BcAt_RNAGWAS\paper\Tables\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BE6731-4E70-4E71-B4D5-F3DC17C2EFF5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B255CC5-463F-432F-B352-64ED6E5E5380}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="-13620" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BcAt_topHots_Gene_funcannot_ind" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>HotspotCategory</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>GeneFunction</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>secreted: expect direct effect</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>TF https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1273623/</t>
   </si>
 </sst>
 </file>
@@ -694,8 +706,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,7 +1077,7 @@
     <col min="11" max="11" width="105.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1101,182 +1114,182 @@
       <c r="L1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="E2">
-        <v>1792824</v>
+        <v>628943</v>
       </c>
       <c r="F2">
-        <v>1794041</v>
+        <v>629317</v>
       </c>
       <c r="G2">
-        <v>1793432.5</v>
+        <v>629130</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>910200</v>
+      </c>
+      <c r="F3">
+        <v>910854</v>
+      </c>
+      <c r="G3">
+        <v>910527</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>117</v>
-      </c>
-      <c r="E3">
-        <v>2267537</v>
-      </c>
-      <c r="F3">
-        <v>2267719</v>
-      </c>
-      <c r="G3">
-        <v>2267628</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E4">
+        <v>1032308</v>
+      </c>
+      <c r="F4">
+        <v>1032410</v>
+      </c>
+      <c r="G4">
+        <v>1032359</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>122</v>
-      </c>
-      <c r="E4">
-        <v>336513</v>
-      </c>
-      <c r="F4">
-        <v>336963</v>
-      </c>
-      <c r="G4">
-        <v>336738</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5">
-        <v>1025730</v>
+        <v>336513</v>
       </c>
       <c r="F5">
-        <v>1026434</v>
+        <v>336963</v>
       </c>
       <c r="G5">
-        <v>1026082</v>
+        <v>336738</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1695008</v>
+      </c>
+      <c r="F6">
+        <v>1695047</v>
+      </c>
+      <c r="G6">
+        <v>1695027.5</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>144</v>
-      </c>
-      <c r="E6">
-        <v>310912</v>
-      </c>
-      <c r="F6">
-        <v>313053</v>
-      </c>
-      <c r="G6">
-        <v>311982.5</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1285,33 +1298,36 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E7">
-        <v>1951821</v>
+        <v>310912</v>
       </c>
       <c r="F7">
-        <v>1953040</v>
+        <v>313053</v>
       </c>
       <c r="G7">
-        <v>1952430.5</v>
+        <v>311982.5</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1320,276 +1336,267 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>219</v>
+        <v>634</v>
       </c>
       <c r="E8">
-        <v>628943</v>
+        <v>1632900</v>
       </c>
       <c r="F8">
-        <v>629317</v>
+        <v>1633510</v>
       </c>
       <c r="G8">
-        <v>629130</v>
+        <v>1633205</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="E9">
-        <v>788329</v>
+        <v>1792824</v>
       </c>
       <c r="F9">
-        <v>788808</v>
+        <v>1794041</v>
       </c>
       <c r="G9">
-        <v>788568.5</v>
+        <v>1793432.5</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
       <c r="L9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>275</v>
-      </c>
       <c r="E10">
-        <v>759092</v>
+        <v>1016682</v>
       </c>
       <c r="F10">
-        <v>759871</v>
+        <v>1018017</v>
       </c>
       <c r="G10">
-        <v>759457.25</v>
+        <v>1017349.5</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>449</v>
+        <v>157</v>
       </c>
       <c r="E11">
-        <v>842439</v>
+        <v>1951821</v>
       </c>
       <c r="F11">
-        <v>842597</v>
+        <v>1953040</v>
       </c>
       <c r="G11">
-        <v>842518</v>
+        <v>1952430.5</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1985742</v>
+      </c>
+      <c r="F12">
+        <v>1986223</v>
+      </c>
+      <c r="G12">
+        <v>1985982.5</v>
+      </c>
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>634</v>
-      </c>
-      <c r="E12">
-        <v>1632900</v>
-      </c>
-      <c r="F12">
-        <v>1633510</v>
-      </c>
-      <c r="G12">
-        <v>1633205</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
       <c r="I12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1032308</v>
+        <v>2016606</v>
       </c>
       <c r="F13">
-        <v>1032410</v>
+        <v>2018033</v>
       </c>
       <c r="G13">
-        <v>1032359</v>
+        <v>2017319.5</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>1985742</v>
+        <v>1228208</v>
       </c>
       <c r="F14">
-        <v>1986223</v>
+        <v>1228881</v>
       </c>
       <c r="G14">
-        <v>1985982.5</v>
+        <v>1228544.5</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>50</v>
       </c>
       <c r="L14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>2016606</v>
+        <v>2330327</v>
       </c>
       <c r="F15">
-        <v>2018033</v>
+        <v>2332534</v>
       </c>
       <c r="G15">
-        <v>2017319.5</v>
+        <v>2331354</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1621,94 +1628,103 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>42</v>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="E17">
-        <v>1016682</v>
+        <v>2267537</v>
       </c>
       <c r="F17">
-        <v>1018017</v>
+        <v>2267719</v>
       </c>
       <c r="G17">
-        <v>1017349.5</v>
+        <v>2267628</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
         <v>7</v>
       </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
       <c r="L17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>83836</v>
+        <v>115736</v>
       </c>
       <c r="F18">
-        <v>84545</v>
+        <v>116258</v>
       </c>
       <c r="G18">
-        <v>84190.5</v>
+        <v>115997</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
         <v>15</v>
       </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>275</v>
       </c>
       <c r="E19">
-        <v>115736</v>
+        <v>759092</v>
       </c>
       <c r="F19">
-        <v>116258</v>
+        <v>759871</v>
       </c>
       <c r="G19">
-        <v>115997</v>
+        <v>759457.25</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -1716,151 +1732,167 @@
       <c r="I19" t="s">
         <v>15</v>
       </c>
-      <c r="J19" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" t="s">
-        <v>47</v>
-      </c>
       <c r="L19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>449</v>
+      </c>
+      <c r="E20">
+        <v>842439</v>
+      </c>
+      <c r="F20">
+        <v>842597</v>
+      </c>
+      <c r="G20">
+        <v>842518</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
         <v>31</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>910200</v>
-      </c>
-      <c r="F20">
-        <v>910854</v>
-      </c>
-      <c r="G20">
-        <v>910527</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
       </c>
       <c r="L20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="E21">
-        <v>1228208</v>
+        <v>1025730</v>
       </c>
       <c r="F21">
-        <v>1228881</v>
+        <v>1026434</v>
       </c>
       <c r="G21">
-        <v>1228544.5</v>
+        <v>1026082</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>1695008</v>
+        <v>83836</v>
       </c>
       <c r="F22">
-        <v>1695047</v>
+        <v>84545</v>
       </c>
       <c r="G22">
-        <v>1695027.5</v>
+        <v>84190.5</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
       </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
       <c r="L22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>52</v>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>240</v>
       </c>
       <c r="E23">
-        <v>2330327</v>
+        <v>788329</v>
       </c>
       <c r="F23">
-        <v>2332534</v>
+        <v>788808</v>
       </c>
       <c r="G23">
-        <v>2331354</v>
+        <v>788568.5</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
         <v>8</v>
       </c>
+      <c r="M23" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>